--- a/Data (2).xlsx
+++ b/Data (2).xlsx
@@ -1,104 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2ac4666dbaa6441e/Desktop/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0AFA57D-DF54-4C91-91A5-9EEE59451E16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="2769" yWindow="1723" windowWidth="16457" windowHeight="8966" xr2:uid="{C09A50FB-D43E-4CE6-A5C8-020094FFC8C3}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2769" yWindow="1723" windowWidth="16457" windowHeight="8966" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>USERNAME</t>
-  </si>
-  <si>
-    <t>PASSWORD</t>
-  </si>
-  <si>
-    <t>DISTANCE</t>
-  </si>
-  <si>
-    <t>Ethan</t>
-  </si>
-  <si>
-    <t>CARBON_FOOT_PRINT</t>
-  </si>
-  <si>
-    <t>CAR_TYPE</t>
-  </si>
-  <si>
-    <t>CAR_FUEL_TYPE</t>
-  </si>
-  <si>
-    <t>GAS_ACCOUNT_PAYMENT</t>
-  </si>
-  <si>
-    <t>WATER ACCOUNT_PAYMENT</t>
-  </si>
-  <si>
-    <t>ELECTRICAL_ACCOUNT_PAYMENT</t>
-  </si>
-  <si>
-    <t>ID_NUMBER</t>
-  </si>
-  <si>
-    <t>FULL_NAME</t>
-  </si>
-  <si>
-    <t>PERSONAL_CFP_PERCENT</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <charset val="177"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="177"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -118,23 +55,82 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{5624F7ED-CB4C-49D8-9DAE-FF66D1A7E3C9}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -434,68 +430,353 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FC9F5EC-F7A1-4BF3-9C37-B0B30932BE5D}">
-  <dimension ref="A1:L3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.6"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>FULL_NAME</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>ID_NUMBER</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>USERNAME</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>PASSWORD</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL_ACCOUNT_PAYMENT</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>WATER ACCOUNT_PAYMENT</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>GAS_ACCOUNT_PAYMENT</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>CAR_FUEL_TYPE</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>CAR_TYPE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>DISTANCE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>CARBON_FOOT_PRINT</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>PERSONAL_CFP_PERCENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>k</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>&lt;built-in function id&gt;</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>SAMY</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>password</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>elec_payment</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>water_payment</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>gas_payment</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>fuel_payment</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>arbon_foot_print</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>electricity_cfp</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>water_cfp</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>gas_cfp</t>
+        </is>
+      </c>
+      <c r="M2" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>k</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>&lt;built-in function id&gt;</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>SAMY</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>password</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>elec_payment</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>water_payment</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>gas_payment</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>fuel_payment</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>arbon_foot_print</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>electricity_cfp</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>water_cfp</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>gas_cfp</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>9</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K2">
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Ethan</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="K3">
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>miles</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>80</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Ethan</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Ethan</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Sam</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Sam</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>k</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>&lt;built-in function id&gt;</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>SAMY</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>password</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>profile_img_file</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>elec_payment</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>water_payment</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>gas_payment</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>fuel_payment</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>arbon_foot_print</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>electricity_cfp</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>water_cfp</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>gas_cfp</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>